--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>365982.7428334084</v>
+        <v>457896.9318625617</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9321424.560661636</v>
+        <v>8666268.959347751</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8366664.17278847</v>
+        <v>8612872.176815497</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.396723986041695</v>
+        <v>43.07008646612813</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>86.27197698880639</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13.45644170423182</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -786,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>129.3420634549345</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663202</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -838,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>38.11163636040617</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>21.41405905276474</v>
       </c>
     </row>
     <row r="5">
@@ -908,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.324764167328709</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.017299287606</v>
       </c>
       <c r="T5" t="n">
-        <v>165.1725371760947</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="U5" t="n">
-        <v>187.5255871663201</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="V5" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>106.5671510266614</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>22.7749124282733</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1035,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="Y6" t="n">
-        <v>83.41747001683225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1075,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>38.11163636040618</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402848</v>
+        <v>21.41405905276496</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1133,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="X8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1233,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U9" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W9" t="n">
-        <v>187.5255871663199</v>
+        <v>149.7933161434362</v>
       </c>
       <c r="X9" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>52.21594625443444</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>85.17289288835356</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.5582063813129</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>241.5151208366301</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1458,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3416504137342371</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247899</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
-        <v>192.0892145641079</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.809572818776</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1531,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>21.85841959884802</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3113116019144</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>104.9382845759052</v>
+        <v>95.44336989065596</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1610,13 +1612,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>336.1680648472552</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>213.4632246120121</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1698,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3400163777887</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>89.59687541851275</v>
       </c>
       <c r="I15" t="n">
-        <v>30.54219944928973</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>107.2890095761569</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1765,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2933991810722</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>104.9382845759051</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>14.57567088453485</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>167.6660319622064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,22 +1849,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>126.7498226612786</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>68.2876242256666</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1904,10 +1906,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,7 +1940,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I18" t="n">
         <v>18.81721868247742</v>
@@ -1971,7 +1973,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>115.0138334144186</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>76.99191676106079</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,16 +2137,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>318.8808837491591</v>
       </c>
       <c r="X20" t="n">
-        <v>101.7804971717342</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>17.4856512602554</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>73.08937855085976</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>137.9991088190098</v>
       </c>
       <c r="C23" t="n">
-        <v>244.2230125550532</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2403,13 +2405,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
         <v>89.59687541851115</v>
@@ -2476,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>80.77366170817052</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>28.03004253565322</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>119.930740786684</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>224.6985895131496</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>54.45803047044437</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>120.6088074159607</v>
       </c>
       <c r="H29" t="n">
-        <v>188.6059442291525</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2919,10 +2921,10 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U30" t="n">
         <v>225.7871683969286</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>81.77200357366344</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3004,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>41.74347609701282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3041,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>256.7273523546845</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>97.91652990141418</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>30.98609823994668</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>5.546312764596341</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,22 +3268,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>365.2406548205483</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>271.775411412472</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3357,7 +3359,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
         <v>89.59687541851115</v>
@@ -3424,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>19.78589926923084</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>174.0445447513306</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3512,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>394.2071006265887</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>387.6625504680448</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>115.0138334144184</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3715,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>169.3656682115175</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3740,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>135.1249893747166</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>229.7965692041379</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3834,7 +3836,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.596875418511</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
         <v>18.81721868247742</v>
@@ -3904,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>85.11239208128393</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>169.365668211518</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3980,16 +3982,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>139.5831982821781</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>308.9203564757145</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4034,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247773</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.509075469704</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>20.95866062610966</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.46338433294369</v>
+        <v>351.9116580139103</v>
       </c>
       <c r="C2" t="n">
-        <v>21.46338433294369</v>
+        <v>203.5822427727904</v>
       </c>
       <c r="D2" t="n">
-        <v>21.46338433294369</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="E2" t="n">
-        <v>21.46338433294369</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="F2" t="n">
-        <v>21.46338433294369</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="G2" t="n">
-        <v>21.46338433294369</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="H2" t="n">
-        <v>21.46338433294369</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678505</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058966</v>
+        <v>53.10181779183023</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>141.3070323458396</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>271.1217663066254</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123834</v>
+        <v>407.6508467588559</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998559</v>
+        <v>523.2361246735305</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020274</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652807</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652807</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823988</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="T2" t="n">
-        <v>400.3029543659138</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="U2" t="n">
-        <v>210.8831693494287</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="V2" t="n">
-        <v>21.46338433294369</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="W2" t="n">
-        <v>21.46338433294369</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="X2" t="n">
-        <v>21.46338433294369</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.46338433294369</v>
+        <v>500.2410732550301</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>203.0474416122426</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C3" t="n">
-        <v>28.59441233111554</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330561</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330561</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330561</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330561</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330561</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330561</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>51.36582106616815</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>150.9598290415666</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140251</v>
+        <v>286.538206975247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546609</v>
+        <v>431.9158668530686</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476357</v>
+        <v>511.7941057756093</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017072</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652807</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652807</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652807</v>
+        <v>456.7359354104562</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487956</v>
+        <v>308.4065201693364</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487956</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487956</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="W3" t="n">
-        <v>560.6825636487956</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="X3" t="n">
-        <v>560.6825636487956</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="Y3" t="n">
-        <v>371.2627786323106</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829011</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702829011</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702829011</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702829011</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702829011</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702829011</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H4" t="n">
-        <v>67.74542702829011</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I4" t="n">
-        <v>67.74542702829011</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404145</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230184</v>
+        <v>14.1259580354324</v>
       </c>
       <c r="M4" t="n">
-        <v>42.9899398517073</v>
+        <v>19.89179156510269</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829011</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.00204697330561</v>
+        <v>166.4657556022862</v>
       </c>
       <c r="C5" t="n">
-        <v>15.00204697330561</v>
+        <v>166.4657556022862</v>
       </c>
       <c r="D5" t="n">
-        <v>15.00204697330561</v>
+        <v>166.4657556022862</v>
       </c>
       <c r="E5" t="n">
-        <v>15.00204697330561</v>
+        <v>166.4657556022862</v>
       </c>
       <c r="F5" t="n">
-        <v>15.00204697330561</v>
+        <v>166.4657556022862</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330561</v>
+        <v>18.13634036116611</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330561</v>
+        <v>18.13634036116611</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330561</v>
+        <v>18.13634036116611</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678508</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058969</v>
+        <v>53.1018177918304</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079186</v>
+        <v>141.3070323458399</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644757</v>
+        <v>271.1217663066261</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123833</v>
+        <v>407.6508467588566</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985589</v>
+        <v>523.2361246735312</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020271</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652804</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652804</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652804</v>
+        <v>463.1245860845262</v>
       </c>
       <c r="T5" t="n">
-        <v>583.2614020227604</v>
+        <v>314.7951708434062</v>
       </c>
       <c r="U5" t="n">
-        <v>393.8416170062755</v>
+        <v>166.4657556022862</v>
       </c>
       <c r="V5" t="n">
-        <v>204.4218319897905</v>
+        <v>166.4657556022862</v>
       </c>
       <c r="W5" t="n">
-        <v>204.4218319897905</v>
+        <v>166.4657556022862</v>
       </c>
       <c r="X5" t="n">
-        <v>204.4218319897905</v>
+        <v>166.4657556022862</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.00204697330561</v>
+        <v>166.4657556022862</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>497.6269409211394</v>
+        <v>183.0820669769777</v>
       </c>
       <c r="C6" t="n">
-        <v>323.1739116400124</v>
+        <v>183.0820669769777</v>
       </c>
       <c r="D6" t="n">
-        <v>174.2395019787611</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="E6" t="n">
-        <v>15.00204697330561</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="F6" t="n">
-        <v>15.00204697330561</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330561</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330561</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330561</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330561</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K6" t="n">
-        <v>67.1341887702422</v>
+        <v>51.36582106616825</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772651</v>
+        <v>150.9598290415669</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140247</v>
+        <v>286.5382069752474</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546606</v>
+        <v>392.9114626603244</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476354</v>
+        <v>511.1831359408233</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017068</v>
+        <v>586.7735145200486</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652804</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652804</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652804</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652804</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="U6" t="n">
-        <v>750.1023486652804</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="V6" t="n">
-        <v>750.1023486652804</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="W6" t="n">
-        <v>750.1023486652804</v>
+        <v>439.0550691137153</v>
       </c>
       <c r="X6" t="n">
-        <v>750.1023486652804</v>
+        <v>290.7256538725952</v>
       </c>
       <c r="Y6" t="n">
-        <v>665.8422779412074</v>
+        <v>290.7256538725952</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="C7" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="D7" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="E7" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="F7" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="G7" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="H7" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="I7" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="J7" t="n">
-        <v>29.24882464404144</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330561</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230183</v>
+        <v>14.12595803543247</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170729</v>
+        <v>19.89179156510284</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396353</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="X7" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.74542702829011</v>
+        <v>33.37805236665727</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>560.6825636487947</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="C8" t="n">
-        <v>371.26277863231</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="D8" t="n">
-        <v>181.8429936158252</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="E8" t="n">
-        <v>181.8429936158252</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="F8" t="n">
-        <v>181.8429936158252</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G8" t="n">
-        <v>181.8429936158252</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
         <v>21.03371160678478</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123826</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="V8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="W8" t="n">
-        <v>750.1023486652795</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="X8" t="n">
-        <v>560.6825636487947</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="Y8" t="n">
-        <v>560.6825636487947</v>
+        <v>583.2614020227602</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="C9" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="D9" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="E9" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="F9" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K9" t="n">
         <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P9" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652795</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="U9" t="n">
-        <v>560.6825636487947</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="V9" t="n">
-        <v>371.26277863231</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="W9" t="n">
-        <v>181.8429936158252</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="X9" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296053</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="T10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1621.74585732473</v>
+        <v>921.7704558796279</v>
       </c>
       <c r="C11" t="n">
-        <v>1621.74585732473</v>
+        <v>552.8079389392162</v>
       </c>
       <c r="D11" t="n">
-        <v>1263.480158717979</v>
+        <v>194.5422403324657</v>
       </c>
       <c r="E11" t="n">
-        <v>877.691906119735</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="F11" t="n">
-        <v>466.7060013301274</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="G11" t="n">
-        <v>50.99064134900325</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H11" t="n">
-        <v>50.99064134900325</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I11" t="n">
-        <v>50.99064134900325</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J11" t="n">
-        <v>186.3894711936282</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>440.0557368508839</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>791.6529319622248</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1214.541994494451</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>1648.887652554185</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2045.692679619749</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P11" t="n">
-        <v>2349.855588952496</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>2530.096520089548</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R11" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S11" t="n">
-        <v>2549.532067450162</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T11" t="n">
-        <v>2549.532067450162</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="U11" t="n">
-        <v>2305.577399938415</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V11" t="n">
-        <v>1974.514512594844</v>
+        <v>2424.744041450756</v>
       </c>
       <c r="W11" t="n">
-        <v>1621.74585732473</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X11" t="n">
-        <v>1621.74585732473</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y11" t="n">
-        <v>1621.74585732473</v>
+        <v>1308.37029594375</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>533.9606367248514</v>
+        <v>941.5438544811102</v>
       </c>
       <c r="C12" t="n">
-        <v>359.5076074437244</v>
+        <v>767.0908251999832</v>
       </c>
       <c r="D12" t="n">
-        <v>210.5731977824731</v>
+        <v>618.1564155387319</v>
       </c>
       <c r="E12" t="n">
-        <v>51.33574277701763</v>
+        <v>458.9189605332764</v>
       </c>
       <c r="F12" t="n">
-        <v>50.99064134900325</v>
+        <v>312.3844025601614</v>
       </c>
       <c r="G12" t="n">
-        <v>50.99064134900325</v>
+        <v>176.0213023927795</v>
       </c>
       <c r="H12" t="n">
-        <v>50.99064134900325</v>
+        <v>85.51940803064709</v>
       </c>
       <c r="I12" t="n">
-        <v>50.99064134900325</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J12" t="n">
-        <v>112.8154098726237</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K12" t="n">
-        <v>296.6386113086636</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L12" t="n">
-        <v>590.134131986624</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M12" t="n">
-        <v>951.9864295006901</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1337.824525520585</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O12" t="n">
-        <v>1668.571208589507</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P12" t="n">
-        <v>1914.691514651696</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q12" t="n">
-        <v>2029.297224930789</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R12" t="n">
-        <v>2029.297224930789</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2029.297224930789</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>1835.267715270074</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U12" t="n">
-        <v>1607.17723767535</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1372.025129443608</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W12" t="n">
-        <v>1117.787772715406</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X12" t="n">
-        <v>909.9362725098733</v>
+        <v>1317.519490266132</v>
       </c>
       <c r="Y12" t="n">
-        <v>702.1759737449195</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>644.0659310639641</v>
+        <v>162.9195607661794</v>
       </c>
       <c r="C13" t="n">
-        <v>644.0659310639641</v>
+        <v>162.9195607661794</v>
       </c>
       <c r="D13" t="n">
-        <v>493.9492916516283</v>
+        <v>162.9195607661794</v>
       </c>
       <c r="E13" t="n">
-        <v>471.8700799356202</v>
+        <v>162.9195607661794</v>
       </c>
       <c r="F13" t="n">
-        <v>324.9801324377098</v>
+        <v>162.9195607661794</v>
       </c>
       <c r="G13" t="n">
-        <v>156.9889085973923</v>
+        <v>162.9195607661794</v>
       </c>
       <c r="H13" t="n">
-        <v>156.9889085973923</v>
+        <v>162.9195607661794</v>
       </c>
       <c r="I13" t="n">
-        <v>50.99064134900325</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J13" t="n">
-        <v>50.99064134900325</v>
+        <v>78.33486996962297</v>
       </c>
       <c r="K13" t="n">
-        <v>116.462901117909</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L13" t="n">
-        <v>230.1506500142257</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M13" t="n">
-        <v>353.276724040951</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N13" t="n">
-        <v>481.3326611335758</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O13" t="n">
-        <v>579.2999565750212</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P13" t="n">
-        <v>644.0659310639641</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q13" t="n">
-        <v>644.0659310639641</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R13" t="n">
-        <v>644.0659310639641</v>
+        <v>831.0565485757138</v>
       </c>
       <c r="S13" t="n">
-        <v>644.0659310639641</v>
+        <v>639.3706644025402</v>
       </c>
       <c r="T13" t="n">
-        <v>644.0659310639641</v>
+        <v>417.6040489720663</v>
       </c>
       <c r="U13" t="n">
-        <v>644.0659310639641</v>
+        <v>417.6040489720663</v>
       </c>
       <c r="V13" t="n">
-        <v>644.0659310639641</v>
+        <v>162.9195607661794</v>
       </c>
       <c r="W13" t="n">
-        <v>644.0659310639641</v>
+        <v>162.9195607661794</v>
       </c>
       <c r="X13" t="n">
-        <v>644.0659310639641</v>
+        <v>162.9195607661794</v>
       </c>
       <c r="Y13" t="n">
-        <v>644.0659310639641</v>
+        <v>162.9195607661794</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>830.9390630790225</v>
+        <v>1175.300932605791</v>
       </c>
       <c r="C14" t="n">
-        <v>461.9765461386108</v>
+        <v>806.3384156653794</v>
       </c>
       <c r="D14" t="n">
-        <v>461.9765461386108</v>
+        <v>448.0727170586289</v>
       </c>
       <c r="E14" t="n">
-        <v>461.9765461386108</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="F14" t="n">
-        <v>50.99064134900325</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="G14" t="n">
-        <v>50.99064134900325</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H14" t="n">
-        <v>50.99064134900325</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I14" t="n">
-        <v>50.99064134900325</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>186.3894711936269</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>440.0557368508829</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>791.6529319622236</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1214.54199449445</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>1648.887652554184</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2045.692679619749</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>2349.855588952495</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>2530.096520089548</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>2549.532067450162</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T14" t="n">
-        <v>2549.532067450162</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>2333.91264865015</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V14" t="n">
-        <v>2333.91264865015</v>
+        <v>2678.274518176919</v>
       </c>
       <c r="W14" t="n">
-        <v>1981.143993380036</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="X14" t="n">
-        <v>1607.678235118956</v>
+        <v>1952.040104645725</v>
       </c>
       <c r="Y14" t="n">
-        <v>1217.538903143144</v>
+        <v>1561.900772669913</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>847.7078870346778</v>
+        <v>941.5438544811102</v>
       </c>
       <c r="C15" t="n">
-        <v>673.2548577535508</v>
+        <v>767.0908251999832</v>
       </c>
       <c r="D15" t="n">
-        <v>524.3204480922996</v>
+        <v>618.1564155387319</v>
       </c>
       <c r="E15" t="n">
-        <v>365.082993086844</v>
+        <v>458.9189605332764</v>
       </c>
       <c r="F15" t="n">
-        <v>218.548435113729</v>
+        <v>312.3844025601614</v>
       </c>
       <c r="G15" t="n">
-        <v>81.84134786343732</v>
+        <v>176.0213023927795</v>
       </c>
       <c r="H15" t="n">
-        <v>81.84134786343732</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>50.99064134900325</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>112.8154098726238</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K15" t="n">
-        <v>296.6386113086638</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L15" t="n">
-        <v>590.1341319866244</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>951.9864295006907</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1337.824525520586</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O15" t="n">
-        <v>1668.571208589508</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P15" t="n">
-        <v>1914.691514651697</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q15" t="n">
-        <v>2029.29722493079</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R15" t="n">
-        <v>2029.29722493079</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S15" t="n">
-        <v>2029.29722493079</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.29722493079</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U15" t="n">
-        <v>1920.924487985177</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V15" t="n">
-        <v>1685.772379753434</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W15" t="n">
-        <v>1431.535023025232</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X15" t="n">
-        <v>1223.6835228197</v>
+        <v>1317.519490266132</v>
       </c>
       <c r="Y15" t="n">
-        <v>1015.923224054746</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>474.7063028193115</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="C16" t="n">
-        <v>305.7701198914046</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D16" t="n">
-        <v>305.7701198914046</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E16" t="n">
-        <v>305.7701198914046</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
-        <v>305.7701198914046</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>305.7701198914046</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>156.9889085973923</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>50.99064134900325</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
-        <v>50.99064134900325</v>
+        <v>78.33486996962296</v>
       </c>
       <c r="K16" t="n">
-        <v>116.462901117909</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L16" t="n">
-        <v>230.1506500142258</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M16" t="n">
-        <v>353.2767240409512</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N16" t="n">
-        <v>481.332661133576</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O16" t="n">
-        <v>579.2999565750215</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P16" t="n">
-        <v>644.0659310639645</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q16" t="n">
-        <v>644.0659310639645</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R16" t="n">
-        <v>644.0659310639645</v>
+        <v>831.0565485757138</v>
       </c>
       <c r="S16" t="n">
-        <v>644.0659310639645</v>
+        <v>639.3706644025402</v>
       </c>
       <c r="T16" t="n">
-        <v>644.0659310639645</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="U16" t="n">
-        <v>644.0659310639645</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="V16" t="n">
-        <v>644.0659310639645</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="W16" t="n">
-        <v>644.0659310639645</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="X16" t="n">
-        <v>644.0659310639645</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="Y16" t="n">
-        <v>474.7063028193115</v>
+        <v>624.6477645191717</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.770455879627</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C17" t="n">
-        <v>552.8079389392153</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D17" t="n">
-        <v>194.5422403324648</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>66.51211643218343</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>66.51211643218343</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136267</v>
+        <v>3256.628423401427</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3050.65067578565</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>2797.120199059486</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450755</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.97538618064</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943749</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
         <v>85.51940803064548</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C19" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D19" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E19" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5695,28 +5697,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R19" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S19" t="n">
-        <v>753.2869356857525</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T19" t="n">
-        <v>531.5203202552785</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U19" t="n">
-        <v>531.5203202552785</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V19" t="n">
-        <v>531.5203202552785</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W19" t="n">
-        <v>531.5203202552785</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="X19" t="n">
-        <v>531.5203202552785</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="Y19" t="n">
-        <v>310.7277411117484</v>
+        <v>182.687705739677</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1689.318139675982</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C20" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.09759726723</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V20" t="n">
-        <v>2535.03470992366</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="W20" t="n">
-        <v>2182.266054653545</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X20" t="n">
-        <v>2079.457471651794</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y20" t="n">
-        <v>1689.318139675982</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5835,40 +5837,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>692.8974549201681</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="C22" t="n">
-        <v>692.8974549201681</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="D22" t="n">
-        <v>675.2351809199101</v>
+        <v>140.339771534062</v>
       </c>
       <c r="E22" t="n">
-        <v>527.322087337517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F22" t="n">
-        <v>380.4321398396067</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G22" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O22" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U22" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V22" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W22" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X22" t="n">
-        <v>692.8974549201681</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y22" t="n">
-        <v>692.8974549201681</v>
+        <v>472.1048757766374</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1822.632236038042</v>
+        <v>1559.116588708439</v>
       </c>
       <c r="C23" t="n">
-        <v>1575.942324366272</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D23" t="n">
-        <v>1575.942324366272</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E23" t="n">
         <v>1190.154071768027</v>
@@ -5981,58 +5983,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W23" t="n">
-        <v>2972.837166339056</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X23" t="n">
-        <v>2599.371408077976</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y23" t="n">
-        <v>2209.232076102164</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="24">
@@ -6051,22 +6053,22 @@
         <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>739.2385409879452</v>
+        <v>2640.167115151077</v>
       </c>
       <c r="C25" t="n">
-        <v>657.6489837069648</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="D25" t="n">
-        <v>507.5323442946291</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="E25" t="n">
-        <v>359.619250712236</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="F25" t="n">
-        <v>212.7293032143256</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G25" t="n">
-        <v>212.7293032143256</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962286</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L25" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R25" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S25" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T25" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U25" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V25" t="n">
-        <v>920.8870058181849</v>
+        <v>3070.921333403285</v>
       </c>
       <c r="W25" t="n">
-        <v>920.8870058181849</v>
+        <v>3042.608159124847</v>
       </c>
       <c r="X25" t="n">
-        <v>920.8870058181849</v>
+        <v>3042.608159124847</v>
       </c>
       <c r="Y25" t="n">
-        <v>920.8870058181849</v>
+        <v>2821.815579981317</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1274.245689520978</v>
+        <v>2126.729101932993</v>
       </c>
       <c r="C26" t="n">
-        <v>905.2831725805665</v>
+        <v>1757.766584992581</v>
       </c>
       <c r="D26" t="n">
-        <v>905.2831725805665</v>
+        <v>1399.500886385831</v>
       </c>
       <c r="E26" t="n">
-        <v>519.4949199823222</v>
+        <v>1013.712633787586</v>
       </c>
       <c r="F26" t="n">
-        <v>108.5090151927147</v>
+        <v>602.7267289979789</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>187.6542788429753</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6248,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410101</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V26" t="n">
-        <v>2630.721789066531</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W26" t="n">
-        <v>2277.953133796416</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X26" t="n">
-        <v>2050.984861560912</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="Y26" t="n">
-        <v>1660.8455295851</v>
+        <v>2513.328941997115</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I27" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>920.7416649986299</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K27" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>235.4482993600903</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
@@ -6412,22 +6414,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181849</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181849</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V28" t="n">
-        <v>920.8870058181849</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W28" t="n">
-        <v>865.8788942318774</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X28" t="n">
-        <v>637.8893433338601</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y28" t="n">
-        <v>417.09676419033</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2196.097994299123</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C29" t="n">
-        <v>1827.135477358711</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D29" t="n">
-        <v>1468.86977875196</v>
+        <v>985.1133520179753</v>
       </c>
       <c r="E29" t="n">
-        <v>1083.081526153716</v>
+        <v>599.325099419731</v>
       </c>
       <c r="F29" t="n">
-        <v>672.0956213641086</v>
+        <v>188.3391946301235</v>
       </c>
       <c r="G29" t="n">
-        <v>257.0231712091051</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912088</v>
@@ -6485,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W29" t="n">
-        <v>2972.837166339056</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X29" t="n">
-        <v>2972.837166339056</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y29" t="n">
-        <v>2582.697834363245</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>361.3151575124869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C31" t="n">
-        <v>361.3151575124869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D31" t="n">
-        <v>361.3151575124869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E31" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
@@ -6652,19 +6654,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U31" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V31" t="n">
-        <v>878.7218784474649</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W31" t="n">
-        <v>589.3047084105042</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="X31" t="n">
-        <v>361.3151575124869</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="Y31" t="n">
-        <v>361.3151575124869</v>
+        <v>149.1100998399243</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1986.901740067214</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C32" t="n">
-        <v>1617.939223126803</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>736.8185791558158</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>325.8326743662082</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3116.409567377262</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>3116.409567377262</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V32" t="n">
-        <v>3116.409567377262</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W32" t="n">
-        <v>2763.640912107148</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X32" t="n">
-        <v>2763.640912107148</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y32" t="n">
-        <v>2373.501580131336</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="33">
@@ -6768,16 +6770,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2617.448119005312</v>
+        <v>2599.855698536083</v>
       </c>
       <c r="C34" t="n">
-        <v>2617.448119005312</v>
+        <v>2599.855698536083</v>
       </c>
       <c r="D34" t="n">
-        <v>2617.448119005312</v>
+        <v>2599.855698536083</v>
       </c>
       <c r="E34" t="n">
-        <v>2617.448119005312</v>
+        <v>2599.855698536083</v>
       </c>
       <c r="F34" t="n">
-        <v>2617.448119005312</v>
+        <v>2599.855698536083</v>
       </c>
       <c r="G34" t="n">
-        <v>2617.448119005312</v>
+        <v>2599.855698536083</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.23093222317</v>
+        <v>2568.556609404824</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.23093222317</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.05368576061</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.36454002828</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950638</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249835</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279683</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497872</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250631</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S34" t="n">
-        <v>3133.919937435998</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T34" t="n">
-        <v>2912.153322005524</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U34" t="n">
-        <v>2623.050455131167</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V34" t="n">
-        <v>2617.448119005312</v>
+        <v>3070.921333403283</v>
       </c>
       <c r="W34" t="n">
-        <v>2617.448119005312</v>
+        <v>2781.504163366323</v>
       </c>
       <c r="X34" t="n">
-        <v>2617.448119005312</v>
+        <v>2781.504163366323</v>
       </c>
       <c r="Y34" t="n">
-        <v>2617.448119005312</v>
+        <v>2781.504163366323</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1506.363819949361</v>
+        <v>1865.035106955553</v>
       </c>
       <c r="C35" t="n">
-        <v>1506.363819949361</v>
+        <v>1496.072590015141</v>
       </c>
       <c r="D35" t="n">
-        <v>1148.09812134261</v>
+        <v>1137.806891408391</v>
       </c>
       <c r="E35" t="n">
-        <v>1148.09812134261</v>
+        <v>752.0186388101465</v>
       </c>
       <c r="F35" t="n">
-        <v>779.1681669784198</v>
+        <v>341.032734020539</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>341.032734020539</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>3009.337405520488</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W35" t="n">
-        <v>2656.568750250374</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X35" t="n">
-        <v>2283.102991989294</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="Y35" t="n">
-        <v>1892.963660013482</v>
+        <v>2251.634947019675</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7047,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3103.839206178697</v>
+        <v>2638.933768848452</v>
       </c>
       <c r="C37" t="n">
-        <v>3083.85344934109</v>
+        <v>2638.933768848452</v>
       </c>
       <c r="D37" t="n">
-        <v>2933.736809928755</v>
+        <v>2638.933768848452</v>
       </c>
       <c r="E37" t="n">
-        <v>2785.823716346361</v>
+        <v>2638.933768848452</v>
       </c>
       <c r="F37" t="n">
-        <v>2638.933768848451</v>
+        <v>2638.933768848452</v>
       </c>
       <c r="G37" t="n">
         <v>2471.23093222317</v>
@@ -7093,25 +7095,25 @@
         <v>2471.23093222317</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.053685760609</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K37" t="n">
         <v>2581.36454002828</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950637</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M37" t="n">
         <v>2904.506865249835</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279682</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O37" t="n">
         <v>3213.734051497872</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.68505425063</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q37" t="n">
         <v>3325.605821609171</v>
@@ -7120,25 +7122,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S37" t="n">
-        <v>3325.605821609171</v>
+        <v>3149.803251153282</v>
       </c>
       <c r="T37" t="n">
-        <v>3103.839206178697</v>
+        <v>2928.036635722808</v>
       </c>
       <c r="U37" t="n">
-        <v>3103.839206178697</v>
+        <v>2638.933768848452</v>
       </c>
       <c r="V37" t="n">
-        <v>3103.839206178697</v>
+        <v>2638.933768848452</v>
       </c>
       <c r="W37" t="n">
-        <v>3103.839206178697</v>
+        <v>2638.933768848452</v>
       </c>
       <c r="X37" t="n">
-        <v>3103.839206178697</v>
+        <v>2638.933768848452</v>
       </c>
       <c r="Y37" t="n">
-        <v>3103.839206178697</v>
+        <v>2638.933768848452</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796261</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C38" t="n">
-        <v>921.7704558796261</v>
+        <v>869.0763550278969</v>
       </c>
       <c r="D38" t="n">
-        <v>921.7704558796261</v>
+        <v>869.0763550278969</v>
       </c>
       <c r="E38" t="n">
-        <v>921.7704558796261</v>
+        <v>869.0763550278969</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>458.0904502382893</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218342</v>
@@ -7181,7 +7183,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7199,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.50962791956</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943748</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="39">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2933.736809928755</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C40" t="n">
-        <v>2933.736809928755</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D40" t="n">
-        <v>2933.736809928755</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E40" t="n">
-        <v>2785.823716346361</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
-        <v>2638.933768848451</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>3154.529389072285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V40" t="n">
-        <v>3154.529389072285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W40" t="n">
-        <v>3154.529389072285</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X40" t="n">
-        <v>3154.529389072285</v>
+        <v>403.4802848832069</v>
       </c>
       <c r="Y40" t="n">
-        <v>2933.736809928755</v>
+        <v>182.6877057396768</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1399.327137149148</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C41" t="n">
-        <v>1399.327137149148</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D41" t="n">
-        <v>1262.837248891859</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E41" t="n">
-        <v>877.0489962936143</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F41" t="n">
-        <v>466.0630915040068</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G41" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>239.8697723080287</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>573.6891459978751</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1024.723359246284</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1558.255263918209</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2105.034080976991</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2490.515000893359</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>2490.515000893359</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>2490.515000893359</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>2549.532067450161</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>2549.532067450161</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>2549.532067450161</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2549.532067450161</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2549.532067450161</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W41" t="n">
-        <v>2549.532067450161</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X41" t="n">
-        <v>2176.066309189081</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y41" t="n">
-        <v>1785.92697721327</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>926.0223793979283</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>751.5693501168013</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>602.63494045555</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>443.3974854500945</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>296.8629274769795</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>160.4998273095976</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>69.99793294746527</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>144.6679108396206</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>382.9321098199677</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>749.6302701326331</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
-        <v>1196.906595354949</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.429638909403</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2081.390918327458</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2391.890509803561</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2549.532067450161</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2549.387714042676</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2419.949827536156</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2227.306827214012</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>1999.238980348427</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1764.086872116685</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1509.849515388483</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1301.99801518295</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1094.237716417996</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>304.6655911877024</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C43" t="n">
-        <v>304.6655911877024</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D43" t="n">
-        <v>304.6655911877024</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>304.6655911877024</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>304.6655911877024</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>136.9627545624213</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>136.9627545624213</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>62.81339488644269</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K43" t="n">
-        <v>161.1242491541131</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
-        <v>316.8340930764704</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>484.2665743756681</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>655.5754114055156</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>793.4937606237054</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>892.444763376464</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>905.3655307350048</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>815.5350734925328</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>815.5350734925328</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>593.7684580620588</v>
+        <v>749.810573281298</v>
       </c>
       <c r="U43" t="n">
-        <v>304.6655911877024</v>
+        <v>749.810573281298</v>
       </c>
       <c r="V43" t="n">
-        <v>304.6655911877024</v>
+        <v>749.810573281298</v>
       </c>
       <c r="W43" t="n">
-        <v>304.6655911877024</v>
+        <v>749.810573281298</v>
       </c>
       <c r="X43" t="n">
-        <v>304.6655911877024</v>
+        <v>749.810573281298</v>
       </c>
       <c r="Y43" t="n">
-        <v>304.6655911877024</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1772.792895410228</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C44" t="n">
-        <v>1403.830378469816</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D44" t="n">
-        <v>1262.837248891859</v>
+        <v>764.341133147311</v>
       </c>
       <c r="E44" t="n">
-        <v>877.0489962936143</v>
+        <v>378.5528805490667</v>
       </c>
       <c r="F44" t="n">
-        <v>466.0630915040068</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G44" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>50.99064134900323</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>384.8100150388497</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>384.8100150388497</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>856.7200513991816</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>1403.498868457964</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>1906.471339337301</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>2301.245705694479</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>2549.532067450161</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>2549.532067450161</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>2549.532067450161</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>2549.532067450161</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>2549.532067450161</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2549.532067450161</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W44" t="n">
-        <v>2549.532067450161</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X44" t="n">
-        <v>2549.532067450161</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y44" t="n">
-        <v>2159.39273547435</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>926.0223793979287</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>751.5693501168017</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>602.6349404555505</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>443.397485450095</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>296.86292747698</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>160.4998273095981</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>69.99793294746559</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>144.6679108396206</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>382.9321098199675</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>749.6302701326329</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
-        <v>1196.906595354949</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.429638909403</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2081.390918327458</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2391.890509803562</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2549.532067450161</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2549.387714042677</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2419.949827536157</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2227.306827214012</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>1999.238980348428</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1764.086872116685</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1509.849515388483</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1301.998015182951</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1094.237716417997</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.99064134900323</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C46" t="n">
-        <v>50.99064134900323</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D46" t="n">
-        <v>50.99064134900323</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E46" t="n">
-        <v>50.99064134900323</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F46" t="n">
-        <v>50.99064134900323</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>62.81339488644269</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
-        <v>161.1242491541131</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
-        <v>316.8340930764704</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>484.2665743756681</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N46" t="n">
-        <v>655.5754114055156</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O46" t="n">
-        <v>793.4937606237054</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P46" t="n">
-        <v>892.444763376464</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q46" t="n">
-        <v>905.3655307350048</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R46" t="n">
-        <v>905.3655307350048</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>905.3655307350048</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>905.3655307350048</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="U46" t="n">
-        <v>616.2626638606483</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="V46" t="n">
-        <v>361.5781756547615</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="W46" t="n">
-        <v>72.16100561780087</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="X46" t="n">
-        <v>50.99064134900323</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.99064134900323</v>
+        <v>701.1808689801002</v>
       </c>
     </row>
   </sheetData>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>235.8877205747719</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>218.4267706822989</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>207.8369205319743</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>119.074593133933</v>
+        <v>88.04160906661441</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22592,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>25.9182938898866</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871015</v>
+        <v>251.1809648714442</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038147</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22623,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>133.9886238604069</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22638,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>61.59970664354543</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,19 +22673,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>77.29308816345809</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>21.88218769163137</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681043</v>
+        <v>48.87899782081595</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>79.02279728521563</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>85.95446606071664</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098418</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>18.95836326784796</v>
+        <v>61.70981873818782</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>21.7289579877603</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22741,25 +22743,25 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7.935701265474393</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>26.04487966482527</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>74.1813952927055</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22771,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>197.17059429933</v>
       </c>
     </row>
     <row r="5">
@@ -22796,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>266.3980159715228</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666373</v>
+        <v>86.27197698880633</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>39.09241243252811</v>
       </c>
       <c r="T5" t="n">
-        <v>48.27134388011203</v>
+        <v>67.2382049840829</v>
       </c>
       <c r="U5" t="n">
-        <v>63.64367339871023</v>
+        <v>104.3348437827354</v>
       </c>
       <c r="V5" t="n">
-        <v>140.2266713038148</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>198.7123514897335</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>59.96603262320598</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.5989444759299261</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409147</v>
+        <v>61.59970664354542</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846316</v>
+        <v>77.29308816345807</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920012</v>
+        <v>195.7251189095246</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>104.8488620722108</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>58.92686411476865</v>
       </c>
       <c r="Y6" t="n">
-        <v>122.2652257604721</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22954,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J7" t="n">
-        <v>18.95836326784796</v>
+        <v>61.70981873818779</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.3148989349952949</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22978,25 +22980,25 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>7.935701265474336</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709382</v>
+        <v>26.04487966482523</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159722</v>
+        <v>74.18139529270546</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23021,22 +23023,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>167.1574544543631</v>
+        <v>167.1574544543629</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G8" t="n">
         <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>151.7212889301279</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
         <v>125.4713171199747</v>
@@ -23066,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S8" t="n">
         <v>158.7758131900531</v>
@@ -23081,10 +23083,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>184.0684315413184</v>
       </c>
       <c r="X8" t="n">
-        <v>182.2055135121492</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23121,7 +23123,7 @@
         <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681213</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377106</v>
+        <v>38.33818124377092</v>
       </c>
       <c r="V9" t="n">
-        <v>45.2749999831054</v>
+        <v>45.27499998310526</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599459974</v>
+        <v>101.9016670174834</v>
       </c>
       <c r="X9" t="n">
-        <v>40.60044802738304</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23200,10 +23202,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402852</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,16 +23220,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>154.5643095410618</v>
+        <v>154.5643095410617</v>
       </c>
       <c r="T10" t="n">
         <v>223.7196734901001</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>296.7574771839082</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>301.1261226415114</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>66.11485303372851</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.6915663742737</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.704164525825</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>9.530969580500596</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23346,16 +23348,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>144.7275619796496</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3400163777887</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>92.88584454571125</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>30.54219944928975</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21.2867095848742</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>134.4690227430407</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23419,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>124.5755430477212</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2933991810722</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.9090505191821023</v>
       </c>
       <c r="J13" t="n">
-        <v>8.242911051707722</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.85573157916966</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.7694211601826</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>194.7445699524669</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7688271957736</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2274111152248</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>45.76230522500663</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.5582063813129</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>301.1261226415114</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>66.11485303372848</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.6915663742737</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.704164525825</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>37.58286580511864</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23589,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>92.88584454571124</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>21.28670958487416</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>134.4690227430407</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>192.0892145641079</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>118.5205632426191</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3113116019144</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23674,7 +23676,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>8.242911051707679</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.8557315791696</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.7694211601826</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>194.7445699524668</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7688271957736</v>
+        <v>204.9732783916344</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2274111152248</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>50.91862138988836</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23735,22 +23737,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>255.1805474109832</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.90013756250923</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23792,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>64.81814676751867</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23908,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>112.7771085703811</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -23950,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,16 +24025,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>30.36008496825389</v>
       </c>
       <c r="X20" t="n">
-        <v>267.9506035067349</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>131.129821757957</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>73.34458409570941</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>244.7347328444708</v>
       </c>
       <c r="C23" t="n">
-        <v>121.0498792159543</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24254,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24364,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>86.47315939045731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24421,16 +24423,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>258.4929558009378</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24446,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>174.6770236006365</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>145.0325111653195</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24652,22 +24654,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>232.0649678661466</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24692,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>290.3129182374928</v>
       </c>
       <c r="H29" t="n">
-        <v>106.001820158168</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -24743,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>98.05997660827386</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24892,13 +24894,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>210.3941672268152</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>154.1943732987689</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>106.001440238206</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25090,10 +25092,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>113.7689166743741</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,19 +25125,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>246.5913305592317</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>41.63539092116309</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>22.8323529748485</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25202,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>147.460921829397</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>15.7244805801113</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25391,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25400,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>12.66894511512271</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>23.25917518540865</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>64.81814676751888</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25603,16 +25605,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>116.8461699940954</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25628,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>219.5580522459663</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25685,10 +25687,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>97.95568926599702</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25792,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>11.24002832855416</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>50.18328106465123</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25868,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>215.0998433385049</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>97.95568926599697</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25922,13 +25924,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,19 +26025,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26074,19 +26076,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>2.039873806465238</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>204.7509947629275</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>433263.0758337678</v>
+        <v>402256.5418769752</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433263.0758337679</v>
+        <v>402256.5418769754</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>732074.4812007227</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>732074.4812007229</v>
+        <v>855506.5411587493</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>777591.6108183698</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>777591.6108183697</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149975.6800963041</v>
+        <v>139242.6491112606</v>
       </c>
       <c r="C2" t="n">
-        <v>149975.6800963041</v>
+        <v>139242.6491112606</v>
       </c>
       <c r="D2" t="n">
-        <v>149975.680096304</v>
+        <v>149975.6800963042</v>
       </c>
       <c r="E2" t="n">
-        <v>253410.3973387115</v>
+        <v>296136.8796318748</v>
       </c>
       <c r="F2" t="n">
-        <v>253410.3973387114</v>
+        <v>296136.8796318749</v>
       </c>
       <c r="G2" t="n">
+        <v>296136.8796318747</v>
+      </c>
+      <c r="H2" t="n">
         <v>296136.8796318746</v>
-      </c>
-      <c r="H2" t="n">
-        <v>296136.8796318747</v>
       </c>
       <c r="I2" t="n">
         <v>296136.8796318747</v>
       </c>
       <c r="J2" t="n">
+        <v>296136.8796318744</v>
+      </c>
+      <c r="K2" t="n">
         <v>296136.8796318746</v>
-      </c>
-      <c r="K2" t="n">
-        <v>296136.8796318747</v>
       </c>
       <c r="L2" t="n">
         <v>296136.8796318746</v>
       </c>
       <c r="M2" t="n">
+        <v>296136.8796318744</v>
+      </c>
+      <c r="N2" t="n">
+        <v>296136.8796318744</v>
+      </c>
+      <c r="O2" t="n">
         <v>296136.8796318746</v>
       </c>
-      <c r="N2" t="n">
-        <v>296136.8796318746</v>
-      </c>
-      <c r="O2" t="n">
-        <v>269166.3268217432</v>
-      </c>
       <c r="P2" t="n">
-        <v>269166.3268217433</v>
+        <v>296136.8796318745</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>542655.4349751304</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>43803.8038407444</v>
       </c>
       <c r="E3" t="n">
-        <v>442006.5628979789</v>
+        <v>627134.6436336681</v>
       </c>
       <c r="F3" t="n">
-        <v>2.695895773285884e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>176272.8472779119</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854468</v>
+        <v>38421.40650613402</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>10295.60674904869</v>
       </c>
       <c r="M3" t="n">
-        <v>112106.270910017</v>
+        <v>160456.4418678776</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723342</v>
+        <v>107.1921479602628</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723342</v>
+        <v>107.192147960263</v>
       </c>
       <c r="D4" t="n">
-        <v>137.800118072334</v>
+        <v>137.8001180723341</v>
       </c>
       <c r="E4" t="n">
-        <v>449.9968236586044</v>
+        <v>584.6469890061235</v>
       </c>
       <c r="F4" t="n">
-        <v>449.9968236586046</v>
+        <v>584.6469890061235</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
         <v>584.6469890061232</v>
       </c>
       <c r="O4" t="n">
-        <v>492.9197747418262</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>492.9197747418262</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26467,37 +26469,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>53719.1197790209</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161359</v>
+        <v>53719.11977902091</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="E5" t="n">
-        <v>59058.54363117638</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="F5" t="n">
-        <v>59058.54363117638</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="J5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="K5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
@@ -26506,10 +26508,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>62510.01949817635</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>62510.01949817635</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-498504.8229542274</v>
+        <v>-457239.097790851</v>
       </c>
       <c r="C6" t="n">
-        <v>92852.07956661815</v>
+        <v>85416.33718427921</v>
       </c>
       <c r="D6" t="n">
-        <v>92852.07956661828</v>
+        <v>49048.27572587385</v>
       </c>
       <c r="E6" t="n">
-        <v>-248104.7060141024</v>
+        <v>-405888.7515521927</v>
       </c>
       <c r="F6" t="n">
-        <v>193901.8568838762</v>
+        <v>221245.8920814754</v>
       </c>
       <c r="G6" t="n">
-        <v>44973.04480356327</v>
+        <v>221245.8920814756</v>
       </c>
       <c r="H6" t="n">
+        <v>221245.8920814752</v>
+      </c>
+      <c r="I6" t="n">
+        <v>221245.8920814752</v>
+      </c>
+      <c r="J6" t="n">
+        <v>182824.485575341</v>
+      </c>
+      <c r="K6" t="n">
         <v>221245.8920814751</v>
       </c>
-      <c r="I6" t="n">
-        <v>221245.8920814754</v>
-      </c>
-      <c r="J6" t="n">
-        <v>172180.9473529306</v>
-      </c>
-      <c r="K6" t="n">
-        <v>221245.8920814753</v>
-      </c>
       <c r="L6" t="n">
-        <v>221245.8920814752</v>
+        <v>210950.2853324264</v>
       </c>
       <c r="M6" t="n">
-        <v>109139.6211714582</v>
+        <v>60789.45021359745</v>
       </c>
       <c r="N6" t="n">
+        <v>221245.892081475</v>
+      </c>
+      <c r="O6" t="n">
         <v>221245.8920814751</v>
       </c>
-      <c r="O6" t="n">
-        <v>206163.3875488251</v>
-      </c>
       <c r="P6" t="n">
-        <v>206163.3875488251</v>
+        <v>221245.8920814751</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129048</v>
+        <v>512.0768631572211</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="E3" t="n">
-        <v>931.4521195382529</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>931.4521195382532</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663201</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E4" t="n">
-        <v>637.3830168625406</v>
+        <v>831.4014554022932</v>
       </c>
       <c r="F4" t="n">
-        <v>637.3830168625406</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="O4" t="n">
-        <v>637.3830168625403</v>
-      </c>
-      <c r="P4" t="n">
-        <v>637.3830168625403</v>
       </c>
     </row>
   </sheetData>
@@ -26957,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>36.39307775568363</v>
       </c>
       <c r="E3" t="n">
-        <v>382.9821786253483</v>
+        <v>541.3067596803941</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158.3245810550451</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>40.67946607761118</v>
       </c>
       <c r="E4" t="n">
-        <v>449.8574296962207</v>
+        <v>643.8758682359733</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>194.0184385397524</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>146.8461210887084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.67946607761118</v>
       </c>
       <c r="M4" t="n">
-        <v>449.8574296962206</v>
+        <v>643.8758682359736</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.67946607761118</v>
       </c>
       <c r="M4" t="n">
-        <v>449.8574296962207</v>
+        <v>643.8758682359733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>194.0184385397524</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>177.8597534986736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975334</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>278.1878331720419</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>223.2813342651926</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>210.3283251711234</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077002</v>
+        <v>2.0586004549034</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954486</v>
+        <v>21.08264190877945</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043123</v>
+        <v>79.3641940376634</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655544</v>
+        <v>174.7211403593576</v>
       </c>
       <c r="K5" t="n">
-        <v>280.472093452864</v>
+        <v>261.8616976154185</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672894</v>
+        <v>324.8625912871685</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470275</v>
+        <v>361.4722271270568</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470026</v>
+        <v>367.3212256695512</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622681</v>
+        <v>346.8510173961055</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244296</v>
+        <v>296.0293186656777</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151093</v>
+        <v>222.3056898744497</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974684</v>
+        <v>129.3135608253258</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619225</v>
+        <v>46.91035786611127</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924584</v>
+        <v>9.011523491339636</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435305</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590852</v>
+        <v>37.92267335645458</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621737</v>
+        <v>177.8597534986737</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405033</v>
+        <v>239.1543878358324</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975331</v>
+        <v>279.0818904206855</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829655</v>
+        <v>238.7894450985627</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292674</v>
+        <v>262.0625810914129</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628873</v>
+        <v>210.3283251711235</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936715</v>
+        <v>140.5989153332808</v>
       </c>
       <c r="R6" t="n">
-        <v>73.2466083355008</v>
+        <v>68.38641580050589</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288821</v>
+        <v>20.45891995727198</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820371</v>
+        <v>4.439609785297038</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07246370705055018</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9234172942179395</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620019</v>
+        <v>8.210019215864959</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639163</v>
+        <v>27.76967644793586</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114197</v>
+        <v>65.28560270120832</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421835</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682166</v>
+        <v>144.7498582199994</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>141.308030123369</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592434</v>
+        <v>130.5208371863685</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843224</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784863</v>
+        <v>77.32360633674038</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647912</v>
+        <v>41.52019942910843</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147603</v>
+        <v>16.09264502741627</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181396</v>
+        <v>3.945510257113013</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05036821604825131</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,13 +31518,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K8" t="n">
         <v>280.4720934528639</v>
@@ -31534,25 +31536,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O8" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U8" t="n">
         <v>0.1763923428061601</v>
@@ -31598,7 +31600,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J9" t="n">
         <v>111.4584056340083</v>
@@ -31607,16 +31609,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P9" t="n">
         <v>225.2762668628872</v>
@@ -31625,16 +31627,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I10" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K10" t="n">
         <v>114.9089482765069</v>
@@ -31701,19 +31703,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S10" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.744531133822119</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H11" t="n">
-        <v>38.34867947425579</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I11" t="n">
-        <v>144.3610365366774</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>317.8123993192354</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>476.3184022139258</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L11" t="n">
-        <v>590.9150969006346</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M11" t="n">
-        <v>657.5069024517437</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N11" t="n">
-        <v>668.1460515357159</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O11" t="n">
-        <v>630.9113700737721</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P11" t="n">
-        <v>538.4682577075384</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q11" t="n">
-        <v>404.3672364775337</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R11" t="n">
-        <v>235.2174038349539</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>85.32850321197162</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T11" t="n">
-        <v>16.39168503830633</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2995624907057695</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.003500785421902</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>19.34959969078522</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>68.98018055071024</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2868878016369</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>323.5214404249043</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L12" t="n">
-        <v>435.0145016768039</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M12" t="n">
-        <v>507.6414051483478</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N12" t="n">
-        <v>521.0771626084799</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O12" t="n">
-        <v>476.6838030999208</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P12" t="n">
-        <v>382.5807771741175</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q12" t="n">
-        <v>255.7451178022766</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R12" t="n">
-        <v>124.3927943790898</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>37.21414836079715</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T12" t="n">
-        <v>8.075514130713717</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1318092621988094</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.67966775654439</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>14.93377332636741</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>50.51219035135313</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J13" t="n">
-        <v>118.7525103876884</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K13" t="n">
-        <v>195.1468538967028</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>249.7207862775178</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M13" t="n">
-        <v>263.295555691772</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N13" t="n">
-        <v>257.0349758719249</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>237.4134025341108</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>203.1481803006051</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>140.6492700502762</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>75.52397021698684</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S13" t="n">
-        <v>29.27202808450541</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>7.176762232507848</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09161824126605776</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.744531133822121</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H14" t="n">
-        <v>38.3486794742558</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I14" t="n">
-        <v>144.3610365366774</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>317.8123993192355</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>476.3184022139259</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L14" t="n">
-        <v>590.9150969006348</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M14" t="n">
-        <v>657.5069024517439</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N14" t="n">
-        <v>668.1460515357161</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O14" t="n">
-        <v>630.9113700737723</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P14" t="n">
-        <v>538.4682577075387</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q14" t="n">
-        <v>404.3672364775338</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R14" t="n">
-        <v>235.217403834954</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>85.32850321197166</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T14" t="n">
-        <v>16.39168503830634</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2995624907057696</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.003500785421903</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>19.34959969078523</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>68.98018055071027</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2868878016369</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>323.5214404249044</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L15" t="n">
-        <v>435.0145016768041</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M15" t="n">
-        <v>507.6414051483479</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N15" t="n">
-        <v>521.07716260848</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O15" t="n">
-        <v>476.683803099921</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P15" t="n">
-        <v>382.5807771741177</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
-        <v>255.7451178022766</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R15" t="n">
-        <v>124.3927943790898</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>37.21414836079717</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T15" t="n">
-        <v>8.075514130713721</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1318092621988095</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.679667756544391</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>14.93377332636741</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>50.51219035135315</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J16" t="n">
-        <v>118.7525103876884</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K16" t="n">
-        <v>195.1468538967028</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>249.7207862775179</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M16" t="n">
-        <v>263.2955556917721</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N16" t="n">
-        <v>257.034975871925</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>237.4134025341109</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>203.1481803006052</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>140.6492700502762</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>75.52397021698687</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S16" t="n">
-        <v>29.27202808450542</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>7.17676223250785</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09161824126605779</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -33737,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33989,7 +33991,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34144,13 +34146,13 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>619.4728780038764</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>222.3056898744495</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
         <v>275.1987363563569</v>
@@ -34220,7 +34222,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34366,16 +34368,16 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0459045266863</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>707.0230376316483</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
         <v>781.7148990095023</v>
@@ -34390,7 +34392,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>215.5855378141321</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
         <v>99.83230779806951</v>
@@ -34457,7 +34459,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>40.0183145243146</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755151</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>80.68508982074822</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>76.35391775679318</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>2.402291260945162</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>5.824074272394228</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>13.6224856581357</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868137</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788344</v>
+        <v>41.77184657043796</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973021</v>
+        <v>89.09617631718129</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197548</v>
+        <v>131.1259938997841</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504117</v>
+        <v>137.9081620729602</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405814</v>
+        <v>116.7528059744187</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656916001</v>
+        <v>64.79632291040821</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065984</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781475</v>
+        <v>40.01831452431469</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606292</v>
+        <v>100.6000080559582</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755148</v>
+        <v>136.9478564986671</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996322</v>
+        <v>107.4477330152294</v>
       </c>
       <c r="O6" t="n">
-        <v>138.091009184823</v>
+        <v>119.4663366469685</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855702</v>
+        <v>76.35391775679327</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440765002</v>
+        <v>0.6171412472592692</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646083</v>
+        <v>2.402291260945219</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061158</v>
+        <v>5.824074272394313</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520832</v>
+        <v>13.62248565813579</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400581</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N9" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646077</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>136.7664947925491</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>256.2285511689452</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L11" t="n">
-        <v>355.1486819306473</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M11" t="n">
-        <v>427.160669224471</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N11" t="n">
-        <v>438.7329879391249</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O11" t="n">
-        <v>400.8131586520853</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P11" t="n">
-        <v>307.2352619522689</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q11" t="n">
-        <v>182.0615466030842</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R11" t="n">
-        <v>19.63186602082178</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.44926113497019</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K12" t="n">
-        <v>185.6800014505453</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L12" t="n">
-        <v>296.4601218969297</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>365.5073712263294</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N12" t="n">
-        <v>389.7354505251466</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O12" t="n">
-        <v>334.0875586554764</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P12" t="n">
-        <v>248.6063697597873</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q12" t="n">
-        <v>115.763343716255</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K13" t="n">
-        <v>66.13359572616739</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L13" t="n">
-        <v>114.8361099962796</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M13" t="n">
-        <v>124.3697717441669</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N13" t="n">
-        <v>129.3494314066917</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O13" t="n">
-        <v>98.95686408226803</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P13" t="n">
-        <v>65.42017625145746</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>136.7664947925492</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>256.2285511689454</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L14" t="n">
-        <v>355.1486819306476</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M14" t="n">
-        <v>427.1606692244712</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N14" t="n">
-        <v>438.7329879391252</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O14" t="n">
-        <v>400.8131586520856</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P14" t="n">
-        <v>307.2352619522691</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q14" t="n">
-        <v>182.0615466030843</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R14" t="n">
-        <v>19.63186602082186</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.44926113497024</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K15" t="n">
-        <v>185.6800014505454</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L15" t="n">
-        <v>296.4601218969299</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>365.5073712263296</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N15" t="n">
-        <v>389.7354505251467</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O15" t="n">
-        <v>334.0875586554765</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P15" t="n">
-        <v>248.6063697597874</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q15" t="n">
-        <v>115.7633437162551</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K16" t="n">
-        <v>66.13359572616744</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L16" t="n">
-        <v>114.8361099962796</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M16" t="n">
-        <v>124.369771744167</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N16" t="n">
-        <v>129.3494314066918</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O16" t="n">
-        <v>98.95686408226811</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P16" t="n">
-        <v>65.42017625145755</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K22" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M22" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37564,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,7 +37639,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37792,13 +37794,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>389.3746665821897</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37868,7 +37870,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -38014,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>476.6768044043756</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
@@ -38038,7 +38040,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,7 +38107,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
